--- a/interface_test/test_data/testdatas.xlsx
+++ b/interface_test/test_data/testdatas.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10530" windowWidth="20730" xWindow="165" yWindow="1305"/>
+    <workbookView xWindow="165" yWindow="1305" windowWidth="20730" windowHeight="10530" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="bialoan" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="conf" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="bidloan" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="149">
   <si>
     <t>case_id</t>
   </si>
@@ -60,30 +59,33 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
-    <t>注册成功</t>
+    <t>20109</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>成功注册-有昵称</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${register_phoneIsNew}","pwd":"$1234567890","regname":"xiaojian"}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"1234567890","regname":"xiaojian"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>20103</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>成功注册-有昵称</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${register_phoneIsNew}","pwd":"$1234567890","regname":"xiaojian"}</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"1234567890","regname":"xiaojian"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
     <t>密码为空</t>
   </si>
   <si>
@@ -93,9 +95,6 @@
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
     <t>重复手机号</t>
   </si>
   <si>
@@ -105,7 +104,7 @@
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
-    <t>手机号码已被注册</t>
+    <t>20110</t>
   </si>
   <si>
     <t>密码超长</t>
@@ -117,7 +116,7 @@
     <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
   </si>
   <si>
-    <t>密码长度必须为6~18</t>
+    <t>20108</t>
   </si>
   <si>
     <t>密码过短</t>
@@ -135,9 +134,6 @@
     <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
-    <t>手机号码格式不正确</t>
-  </si>
-  <si>
     <t>手机号格式错误（10）</t>
   </si>
   <si>
@@ -162,6 +158,9 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>用户名字为空</t>
   </si>
   <si>
@@ -180,7 +179,7 @@
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
   </si>
   <si>
-    <t>用户名或密码错误</t>
+    <t>20111</t>
   </si>
   <si>
     <t>密码错误</t>
@@ -204,9 +203,6 @@
     <t>{"mobilephone":"","amount":50.01}</t>
   </si>
   <si>
-    <t>此手机号对应的会员不存在</t>
-  </si>
-  <si>
     <t>未注册的手机号码</t>
   </si>
   <si>
@@ -234,7 +230,7 @@
     <t>{"mobilephone":"1355084831s","amount":50.1}</t>
   </si>
   <si>
-    <t>请输入金额</t>
+    <t>20115</t>
   </si>
   <si>
     <t>金额为空</t>
@@ -246,7 +242,7 @@
     <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
   </si>
   <si>
-    <t>输入金额的金额小数不能超过两位</t>
+    <t>20116</t>
   </si>
   <si>
     <t>金额小数位大于2</t>
@@ -258,7 +254,7 @@
     <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
   </si>
   <si>
-    <t>请输入范围在0到50万之间的正数金额</t>
+    <t>20117</t>
   </si>
   <si>
     <t>金额超过50w</t>
@@ -276,33 +272,33 @@
     <t>{"mobilephone":"${mobilephone}","amount":-0.01}</t>
   </si>
   <si>
+    <t>20118</t>
+  </si>
+  <si>
+    <t>金额为字符串</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"a.01"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
     <t>请输入数字</t>
   </si>
   <si>
-    <t>金额为字符串</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"a.01"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+    <t>member/withdraw</t>
   </si>
   <si>
     <t>取现成功</t>
   </si>
   <si>
-    <t>member/withdraw</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${mobilephone}","amount":"0.01"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"取现成功"}</t>
   </si>
   <si>
-    <t>余额不足，请修改提现额度</t>
-  </si>
-  <si>
     <t>余额不足</t>
   </si>
   <si>
@@ -318,184 +314,212 @@
     <t>投资竞标成功</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":1234,"amount":1000}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
   </si>
   <si>
     <t>用户id为空</t>
   </si>
   <si>
-    <t>{"memeberId":"","password":"0123456789","loanId":1234,"amount":1000}</t>
+    <t>{"memberId":"","password":"0123456789","loanId":1234,"amount":1000}</t>
   </si>
   <si>
     <t>{"status":1,"code":"11003","data":null,"msg":"参数错误:所有参数不能为空"}</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"","loanId":1234,"amount":1000}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"11004","data":null,"msg":"参数错误:所有参数不能为空"}</t>
+    <t>11003</t>
+  </si>
+  <si>
+    <t>{"memberId":123456,"password":"","loanId":1234,"amount":1000}</t>
   </si>
   <si>
     <t>标号为空</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":"","amount":1000}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"11005","data":null,"msg":"参数错误:所有参数不能为空"}</t>
+    <t>{"memberId":123456,"password":"0123456789","loanId":"","amount":1000}</t>
   </si>
   <si>
     <t>投资金额为空</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":1234,"amount":""}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"11006","data":null,"msg":"参数错误:所有参数不能为空"}</t>
+    <t>{"memberId":123456,"password":"0123456789","loanId":1234,"amount":""}</t>
   </si>
   <si>
     <t>用户id为负</t>
   </si>
   <si>
-    <t>{"memeberId":-1,"password":"0123456789","loanId":1234, "amount":1000}</t>
+    <t>{"memberId":-1,"password":"0123456789","loanId":"1234","amount":1000}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11004","data":null,"msg":"参数错误,memberId必须是大于0的正整数"}</t>
   </si>
   <si>
-    <t>用户id是浮点数</t>
-  </si>
-  <si>
-    <t>{"memeberId":1.2,"password":"0123456789","loanId":1234, "amount":1000}</t>
-  </si>
-  <si>
-    <t>用户id是字符串</t>
-  </si>
-  <si>
-    <t>{"memeberId":"112w","password":"0123456789","loanId":1234, "amount":1000}</t>
+    <t>11004</t>
   </si>
   <si>
     <t>标号id为负</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":-1,"amount":1000}</t>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":-1,"amount":1000}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11005","data":null,"msg":"参数错误,loanId必须是大于0的正整数"}</t>
   </si>
   <si>
+    <t>11009</t>
+  </si>
+  <si>
     <t>标号d是浮点数</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":11.2,"amount":1000}</t>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":11.2,"amount":1000}</t>
   </si>
   <si>
     <t>标号id是字符串</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":"ASD2","amount":1000}</t>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":"asd","amount":1000}</t>
   </si>
   <si>
     <t>密码过长</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789123456789","loanId":"1234","amount":1000}</t>
+    <t>{"memberId":123456,"password":"0123456789123456789","loanId":"1234","amount":1000}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11006","data":null,"msg":"参数错误,password长度必须大于6位且小于18位"}</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"01234","loanId":"1234","amount":1000}</t>
+    <t>11006</t>
+  </si>
+  <si>
+    <t>{"memberId":123456,"password":"01234","loanId":"1234","amount":1000}</t>
   </si>
   <si>
     <t>投资金额小于0</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":1234,"amount":-1}</t>
+    <t>{"memberId":123456,"password":"0123456789","loanId":1234,"amount":-1}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误,投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
+    <t>11007</t>
+  </si>
+  <si>
     <t>投资金额是浮点数</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":1234,"amount":1.31}</t>
+    <t>{"memberId":123456,"password":"0123456789","loanId":1234,"amount":1.31}</t>
   </si>
   <si>
     <t>用户不存在</t>
   </si>
   <si>
-    <t>{"memeberId":123458266,"password":"0123456789","loanId":1234,"amount":1000}</t>
+    <t>{"memberId":${memeberId_IsNew},"password":"0123456789","loanId":1234,"amount":1000}</t>
   </si>
   <si>
     <t xml:space="preserve">
 {"status":0,"code":"11008","data":null,"msg":"不存在该用户"}</t>
   </si>
   <si>
+    <t>11008</t>
+  </si>
+  <si>
     <t>标号不存在</t>
   </si>
   <si>
-    <t>{"memeberId":123456,"password":"0123456789","loanId":123456789,"amount":1000}</t>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":${loanId_IsNew},"amount":1000}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标号"}</t>
   </si>
   <si>
-    <t>${mobilephone}</t>
+    <t>标不在竞标状态</t>
+  </si>
+  <si>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":${loanId_StatusError},"amount":1000}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标状态"}</t>
+  </si>
+  <si>
+    <t>11010</t>
+  </si>
+  <si>
+    <t>满标</t>
+  </si>
+  <si>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":${loanId_IsEnough},"amount":1000}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11011","data":null,"msg":"该标满标，无法投标"}</t>
+  </si>
+  <si>
+    <t>标金额不足</t>
+  </si>
+  <si>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":1451,"amount":1000}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足"}</t>
+  </si>
+  <si>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":4825,"amount":100}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="18"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="18"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -523,30 +547,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -836,31 +884,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="G2" sqref="G2:H11"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="24.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="13.75"/>
-    <col customWidth="1" max="2" min="2" style="4" width="92.875"/>
-    <col customWidth="1" max="3" min="3" style="3" width="14.625"/>
-    <col customWidth="1" max="4" min="4" style="3" width="27.875"/>
-    <col customWidth="1" max="5" min="5" style="3" width="75.375"/>
-    <col customWidth="1" max="6" min="6" style="3" width="35.125"/>
-    <col customWidth="1" max="7" min="7" style="3" width="30"/>
-    <col customWidth="1" max="8" min="8" style="3" width="16.125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="28.5"/>
+    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="92.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="75.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="24.75" r="1" s="4" spans="1:8">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -886,8 +930,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="2" s="4" spans="1:8">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -912,8 +956,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="109.5" r="3" s="4" spans="1:8">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -938,8 +982,8 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="84.75" r="4" s="4" spans="1:8">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -961,11 +1005,11 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="65.25" r="5" s="4" spans="1:8">
-      <c r="A5" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -975,23 +1019,23 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="4" spans="1:8">
-      <c r="A6" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1013,11 +1057,11 @@
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="101.25" r="7" s="4" spans="1:8">
-      <c r="A7" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1039,11 +1083,11 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="88.5" r="8" s="4" spans="1:8">
-      <c r="A8" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1065,11 +1109,11 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="91.5" r="9" s="4" spans="1:8">
-      <c r="A9" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1088,14 +1132,14 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="149.25" r="10" s="4" spans="1:8">
-      <c r="A10" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1105,23 +1149,23 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="106.5" r="11" s="4" spans="1:8">
-      <c r="A11" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1131,55 +1175,52 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="19" s="3" spans="1:8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="B2" r:id="rId1"/>
-    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="B6" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="13"/>
-    <col customWidth="1" max="2" min="2" style="3" width="90.875"/>
-    <col customWidth="1" max="3" min="3" style="3" width="15.875"/>
-    <col customWidth="1" max="4" min="4" style="3" width="22.375"/>
-    <col customWidth="1" max="5" min="5" style="3" width="55.875"/>
-    <col customWidth="1" max="6" min="6" style="3" width="60.375"/>
-    <col customWidth="1" max="7" min="7" style="3" width="19.875"/>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="90.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="4" spans="1:8">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1205,38 +1246,38 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="57.75" r="3" s="4" spans="1:8">
-      <c r="A3" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1254,41 +1295,41 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="78.75" r="4" s="4" spans="1:8">
-      <c r="A4" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="47.25" r="5" s="4" spans="1:8">
-      <c r="A5" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1306,15 +1347,15 @@
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="87" r="6" s="4" spans="1:8">
-      <c r="A6" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1332,40 +1373,37 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17.625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="75.625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="16"/>
-    <col customWidth="1" max="4" min="4" style="3" width="26.875"/>
-    <col customWidth="1" max="5" min="5" style="3" width="93.5"/>
-    <col customWidth="1" max="6" min="6" style="3" width="66.75"/>
-    <col customWidth="1" max="7" min="7" style="3" width="28.375"/>
-    <col customWidth="1" max="8" min="8" style="3" width="11.5"/>
+    <col min="1" max="1" width="17.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="93.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24.75" r="1" s="3" spans="1:8">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1391,34 +1429,34 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="3" s="3" spans="1:8">
-      <c r="A3" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1440,11 +1478,11 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="4" s="3" spans="1:8">
-      <c r="A4" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1463,14 +1501,14 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="49.5" r="5" s="3" spans="1:8">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1480,23 +1518,23 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="6" s="3" spans="1:8">
-      <c r="A6" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1506,23 +1544,23 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="7" s="3" spans="1:8">
-      <c r="A7" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1532,23 +1570,23 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="8" s="3" spans="1:8">
-      <c r="A8" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1558,23 +1596,23 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="9" s="3" spans="1:8">
-      <c r="A9" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1584,23 +1622,23 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="10" s="3" spans="1:8">
-      <c r="A10" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1610,23 +1648,23 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="11" s="3" spans="1:8">
-      <c r="A11" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1636,23 +1674,23 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="12" s="3" spans="1:8">
-      <c r="A12" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1662,23 +1700,23 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="13" s="3" spans="1:8">
-      <c r="A13" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1688,50 +1726,47 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="24.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="18.75"/>
-    <col customWidth="1" max="2" min="2" style="3" width="74.5"/>
-    <col customWidth="1" max="3" min="3" style="3" width="15.75"/>
-    <col customWidth="1" max="4" min="4" style="3" width="36.5"/>
-    <col customWidth="1" max="5" min="5" style="3" width="67.5"/>
-    <col customWidth="1" max="6" min="6" style="3" width="54"/>
-    <col customWidth="1" max="7" min="7" style="1" width="34"/>
+    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="67.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="54" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="49.5" r="1" s="3" spans="1:8">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1757,44 +1792,38 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="3" s="3" spans="1:8">
-      <c r="A3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>91</v>
@@ -1802,19 +1831,13 @@
       <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="4" s="3" spans="1:8">
-      <c r="A4" s="4" t="n">
+    </row>
+    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -1828,301 +1851,233 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="5" s="3" spans="1:8">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="6" s="3" spans="1:8">
-      <c r="A6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="7" s="3" spans="1:8">
-      <c r="A7" s="4" t="n">
+    </row>
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="8" s="3" spans="1:8">
-      <c r="A8" s="4" t="n">
+    </row>
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="9" s="3" spans="1:8">
-      <c r="A9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="10" s="3" spans="1:8">
-      <c r="A10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="11" s="3" spans="1:8">
-      <c r="A11" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="12" s="3" spans="1:8">
-      <c r="A12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="13" s="3" spans="1:8">
-      <c r="A13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="14" s="3" spans="1:8">
-      <c r="A14" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="19.75"/>
-    <col customWidth="1" max="2" min="2" style="3" width="57.625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="12.75"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19"/>
-    <col customWidth="1" max="5" min="5" style="3" width="61.5"/>
-    <col customWidth="1" max="6" min="6" style="3" width="63"/>
+    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="63" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="49.5" r="1" s="3" spans="1:8">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2087,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -2141,319 +2096,409 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="49.5" r="2" s="3" spans="1:8">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="3" s="3" spans="1:8">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="4" s="3" spans="1:8">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="5" s="3" spans="1:8">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="6" s="3" spans="1:8">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="7" s="3" spans="1:8">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="8" s="3" spans="1:8">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="9" s="3" spans="1:8">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="10" s="3" spans="1:8">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="11" s="3" spans="1:8">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="12" s="3" spans="1:8">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="13" s="3" spans="1:8">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="14" s="3" spans="1:8">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="15" s="3" spans="1:8">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="16" s="3" spans="1:8">
-      <c r="A16" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="17" s="3" spans="1:8">
-      <c r="A17" s="4" t="n">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -2467,13 +2512,19 @@
       <c r="F17" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row customHeight="1" ht="74.25" r="18" s="3" spans="1:8">
-      <c r="A18" s="4" t="n">
+      <c r="G17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -2487,42 +2538,68 @@
       <c r="F18" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="G18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="29.5"/>
-    <col customWidth="1" max="2" min="2" style="3" width="13.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="n">
-        <v>18999999590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/interface_test/test_data/testdatas.xlsx
+++ b/interface_test/test_data/testdatas.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1305" windowWidth="20730" windowHeight="10530" activeTab="4"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10530" windowWidth="20730" xWindow="165" yWindow="1305"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="bidloan" sheetId="5" r:id="rId5"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="bidloan" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>case_id</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>投资竞标成功</t>
+  </si>
+  <si>
+    <t>{"memberId":${memberId},"password":"${pwd}","loanId":4825,"amount":100}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
@@ -463,48 +466,45 @@
   </si>
   <si>
     <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足"}</t>
-  </si>
-  <si>
-    <t>{"memberId":${memberId},"password":"${pwd}","loanId":4825,"amount":100}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -547,54 +547,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -884,27 +878,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="24.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="92.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="75.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="13.75"/>
+    <col customWidth="1" max="2" min="2" style="4" width="92.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="14.625"/>
+    <col customWidth="1" max="4" min="4" style="3" width="27.875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="75.375"/>
+    <col customWidth="1" max="6" min="6" style="3" width="35.125"/>
+    <col customWidth="1" max="7" min="7" style="3" width="30"/>
+    <col customWidth="1" max="8" min="8" style="3" width="16.125"/>
+    <col customWidth="1" max="9" min="9" style="3" width="28.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="24.75" r="1" s="4" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -930,8 +928,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customFormat="1" customHeight="1" ht="92.25" r="2" s="4" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -956,8 +954,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row customFormat="1" customHeight="1" ht="109.5" r="3" s="4" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -982,8 +980,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row customFormat="1" customHeight="1" ht="84.75" r="4" s="4" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1008,8 +1006,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row customFormat="1" customHeight="1" ht="65.25" r="5" s="4" spans="1:8">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1034,8 +1032,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="4" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1060,8 +1058,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row customFormat="1" customHeight="1" ht="101.25" r="7" s="4" spans="1:8">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1086,8 +1084,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row customFormat="1" customHeight="1" ht="88.5" r="8" s="4" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1112,8 +1110,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row customFormat="1" customHeight="1" ht="91.5" r="9" s="4" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1138,8 +1136,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row customFormat="1" customHeight="1" ht="149.25" r="10" s="4" spans="1:8">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1164,8 +1162,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row customFormat="1" customHeight="1" ht="106.5" r="11" s="4" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1190,37 +1188,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row customHeight="1" ht="11.25" r="19" s="3" spans="1:8"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B6" r:id="rId2" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="B2" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="B6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="90.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="55.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="13"/>
+    <col customWidth="1" max="2" min="2" style="3" width="90.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="15.875"/>
+    <col customWidth="1" max="4" min="4" style="3" width="22.375"/>
+    <col customWidth="1" max="5" min="5" style="3" width="55.875"/>
+    <col customWidth="1" max="6" min="6" style="3" width="60.375"/>
+    <col customWidth="1" max="7" min="7" style="3" width="19.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="4" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1247,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1272,8 +1273,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row customFormat="1" customHeight="1" ht="57.75" r="3" s="4" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1298,8 +1299,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row customFormat="1" customHeight="1" ht="78.75" r="4" s="4" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1324,8 +1325,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row customFormat="1" customHeight="1" ht="47.25" r="5" s="4" spans="1:8">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1350,8 +1351,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row customFormat="1" customHeight="1" ht="87" r="6" s="4" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1377,33 +1378,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="93.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="66.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="17.625"/>
+    <col customWidth="1" max="2" min="2" style="3" width="75.625"/>
+    <col customWidth="1" max="3" min="3" style="3" width="16"/>
+    <col customWidth="1" max="4" min="4" style="3" width="26.875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="93.5"/>
+    <col customWidth="1" max="6" min="6" style="3" width="66.75"/>
+    <col customWidth="1" max="7" min="7" style="3" width="28.375"/>
+    <col customWidth="1" max="8" min="8" style="3" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="24.75" r="1" s="3" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1429,8 +1433,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1455,8 +1459,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row customHeight="1" ht="49.5" r="3" s="3" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1481,8 +1485,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row customHeight="1" ht="49.5" r="4" s="3" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1507,8 +1511,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row customHeight="1" ht="49.5" r="5" s="3" spans="1:8">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1533,8 +1537,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row customHeight="1" ht="49.5" r="6" s="3" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1559,8 +1563,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row customHeight="1" ht="49.5" r="7" s="3" spans="1:8">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1585,8 +1589,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row customHeight="1" ht="49.5" r="8" s="3" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1611,8 +1615,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row customHeight="1" ht="49.5" r="9" s="3" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1637,8 +1641,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row customHeight="1" ht="49.5" r="10" s="3" spans="1:8">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1663,8 +1667,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row customHeight="1" ht="49.5" r="11" s="3" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1689,8 +1693,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row customHeight="1" ht="49.5" r="12" s="3" spans="1:8">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1715,8 +1719,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row customHeight="1" ht="49.5" r="13" s="3" spans="1:8">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1742,31 +1746,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="24.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="67.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="54" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="18.75"/>
+    <col customWidth="1" max="2" min="2" style="3" width="74.5"/>
+    <col customWidth="1" max="3" min="3" style="3" width="15.75"/>
+    <col customWidth="1" max="4" min="4" style="3" width="36.5"/>
+    <col customWidth="1" max="5" min="5" style="3" width="67.5"/>
+    <col customWidth="1" max="6" min="6" style="3" width="54"/>
+    <col customWidth="1" max="7" min="7" style="1" width="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="49.5" r="1" s="3" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1792,8 +1799,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1812,8 +1819,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row customHeight="1" ht="49.5" r="3" s="3" spans="1:8">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1832,8 +1839,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row customHeight="1" ht="49.5" r="4" s="3" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1852,8 +1859,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row customHeight="1" ht="74.25" r="5" s="3" spans="1:8">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1872,8 +1879,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row customHeight="1" ht="49.5" r="6" s="3" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1892,8 +1899,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row customHeight="1" ht="49.5" r="7" s="3" spans="1:8">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1912,8 +1919,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row customHeight="1" ht="49.5" r="8" s="3" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1932,8 +1939,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row customHeight="1" ht="49.5" r="9" s="3" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1952,8 +1959,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row customHeight="1" ht="74.25" r="10" s="3" spans="1:8">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1972,8 +1979,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row customHeight="1" ht="74.25" r="11" s="3" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1992,8 +1999,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row customHeight="1" ht="74.25" r="12" s="3" spans="1:8">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2012,8 +2019,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row customHeight="1" ht="49.5" r="13" s="3" spans="1:8">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2032,8 +2039,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+    <row customHeight="1" ht="74.25" r="14" s="3" spans="1:8">
+      <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2053,31 +2060,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="24.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="63" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="6" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="19.75"/>
+    <col customWidth="1" max="2" min="2" style="3" width="57.625"/>
+    <col customWidth="1" max="3" min="3" style="3" width="12.75"/>
+    <col customWidth="1" max="4" min="4" style="1" width="19"/>
+    <col customWidth="1" max="5" min="5" style="3" width="71.25"/>
+    <col customWidth="1" max="6" min="6" style="3" width="63"/>
+    <col customWidth="1" max="7" min="7" style="6" width="35.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="49.5" r="1" s="3" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2103,8 +2113,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customFormat="1" customHeight="1" ht="76.5" r="2" s="4" spans="1:8">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2129,8 +2139,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    <row customFormat="1" customHeight="1" ht="49.5" r="3" s="11" spans="1:8">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2143,20 +2153,20 @@
         <v>97</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="49.5" r="4" s="7" spans="1:8">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2166,23 +2176,23 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row customFormat="1" customHeight="1" ht="49.5" r="5" s="7" spans="1:8">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2195,20 +2205,20 @@
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row customFormat="1" customHeight="1" ht="49.5" r="6" s="7" spans="1:8">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2218,23 +2228,23 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row customFormat="1" customHeight="1" ht="49.5" r="7" s="7" spans="1:8">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2244,23 +2254,23 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row customFormat="1" customHeight="1" ht="295.5" r="8" s="7" spans="1:8">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2270,23 +2280,23 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row customFormat="1" customHeight="1" ht="49.5" r="9" s="7" spans="1:8">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2296,23 +2306,23 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    <row customFormat="1" customHeight="1" ht="49.5" r="10" s="7" spans="1:8">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2322,23 +2332,23 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row customFormat="1" customHeight="1" ht="49.5" r="11" s="7" spans="1:8">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2348,23 +2358,23 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+    <row customFormat="1" customHeight="1" ht="74.25" r="12" s="7" spans="1:8">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2374,23 +2384,23 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row customFormat="1" customHeight="1" ht="74.25" r="13" s="7" spans="1:8">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2403,20 +2413,20 @@
         <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+    <row customFormat="1" customHeight="1" ht="74.25" r="14" s="7" spans="1:8">
+      <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2426,23 +2436,23 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+    <row customFormat="1" customHeight="1" ht="74.25" r="15" s="7" spans="1:8">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2452,23 +2462,23 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row customHeight="1" ht="74.25" r="16" s="3" spans="1:8">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2478,23 +2488,23 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+    <row customHeight="1" ht="74.25" r="17" s="3" spans="1:8">
+      <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2504,23 +2514,23 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+    <row customHeight="1" ht="56.25" r="18" s="3" spans="1:8">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2530,23 +2540,23 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+    <row customHeight="1" ht="54.75" r="19" s="3" spans="1:8">
+      <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2556,23 +2566,23 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+    <row customHeight="1" ht="108" r="20" s="3" spans="1:8">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2582,24 +2592,23 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>